--- a/config_5.25/item_config.xlsx
+++ b/config_5.25/item_config.xlsx
@@ -1761,7 +1761,7 @@
     <t>act_ty_by_drop_7</t>
   </si>
   <si>
-    <t>五星</t>
+    <t>欢乐券</t>
   </si>
   <si>
     <t>掉落物活动通用道具</t>
@@ -3411,8 +3411,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -3475,6 +3475,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -3482,7 +3489,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3490,14 +3497,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3512,38 +3534,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3557,10 +3556,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3589,10 +3589,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3605,14 +3613,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3680,31 +3680,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3722,7 +3704,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3734,31 +3746,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3782,25 +3782,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3812,13 +3800,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3830,7 +3812,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3843,12 +3849,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3888,26 +3888,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3927,17 +3918,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3961,16 +3946,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3985,6 +3961,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3993,10 +3993,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4005,19 +4005,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4026,16 +4026,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4044,94 +4044,94 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4584,10 +4584,10 @@
   <sheetPr/>
   <dimension ref="A1:Q322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G326" sqref="G326"/>
+      <selection pane="bottomLeft" activeCell="I131" sqref="I131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
